--- a/JPLdata/9pha.xlsx
+++ b/JPLdata/9pha.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9975"/>
+    <workbookView windowWidth="23805" windowHeight="13110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -22,10 +22,7 @@
     <t>num</t>
   </si>
   <si>
-    <t>Hv/diam</t>
-  </si>
-  <si>
-    <t>Hv/diam(papper)</t>
+    <t>diam(wise)</t>
   </si>
   <si>
     <t>diam</t>
@@ -40,42 +37,12 @@
     <t>loss</t>
   </si>
   <si>
-    <t>2003ma3</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>21.7/136</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>993</t>
-  </si>
-  <si>
-    <t>8.17</t>
-  </si>
-  <si>
-    <t>0.00059</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>2010co1</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>21.9/124</t>
-  </si>
-  <si>
-    <t>21.5/380,21.8/464</t>
-  </si>
-  <si>
     <t>346</t>
   </si>
   <si>
@@ -94,9 +61,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>21.8/130</t>
-  </si>
-  <si>
     <t>402</t>
   </si>
   <si>
@@ -118,18 +82,9 @@
     <t>14</t>
   </si>
   <si>
-    <t>23.7/54</t>
-  </si>
-  <si>
     <t>45</t>
   </si>
   <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
     <t>0.012</t>
   </si>
   <si>
@@ -142,18 +97,6 @@
     <t>41</t>
   </si>
   <si>
-    <t>21.6/142</t>
-  </si>
-  <si>
-    <t>21.7/200</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>9.82</t>
-  </si>
-  <si>
     <t>0.052</t>
   </si>
   <si>
@@ -166,12 +109,6 @@
     <t>11</t>
   </si>
   <si>
-    <t>21.5/149</t>
-  </si>
-  <si>
-    <t>21.5/203</t>
-  </si>
-  <si>
     <t>163</t>
   </si>
   <si>
@@ -187,9 +124,6 @@
     <t>2010jn71</t>
   </si>
   <si>
-    <t>21.4/156</t>
-  </si>
-  <si>
     <t>214</t>
   </si>
   <si>
@@ -211,9 +145,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>21.8/212</t>
-  </si>
-  <si>
     <t>798</t>
   </si>
   <si>
@@ -230,9 +161,6 @@
   </si>
   <si>
     <t>26</t>
-  </si>
-  <si>
-    <t>21.3/213</t>
   </si>
   <si>
     <t>226</t>
@@ -252,10 +180,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -267,37 +195,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,99 +307,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,19 +354,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,13 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,73 +510,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,67 +534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,6 +545,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -637,11 +574,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,27 +622,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,153 +648,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1250,15 +1184,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.2" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="7.2" defaultRowHeight="17.25" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1280,249 +1217,196 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>380464</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D4" s="2">
+        <v>218</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>259</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9.667</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C6" s="2">
+        <v>203</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" s="2">
+        <v>212</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C9" s="2">
+        <v>213</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1 E1:H1 A2:H2 A3:C3 E3:H3 A4:H10" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:B3 C3:G3 A4:B4 C4 F4:G4 A5:B5 F5:G5 A6:B6 D6:G6 A7:G7 A8:B8 D8:G8 A9:B9 D9:G9 D2:G2 A2:B2 D1:G1 A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>